--- a/worksheet/work/sheet.xlsx
+++ b/worksheet/work/sheet.xlsx
@@ -1,61 +1,232 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACD13E79-E28D-4DA5-A8B4-DD55A1EB426C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04B82352-474E-4F2D-93D9-29E4AF90C9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{800EA769-2E10-4273-9BB0-CED27CA59357}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>question1</t>
-  </si>
-  <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>oui;non</t>
-  </si>
-  <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>question2</t>
-  </si>
-  <si>
-    <t>non</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+  <si>
+    <t>Combien de types d'infractions distingue-t-on en droit ?</t>
+  </si>
+  <si>
+    <t>L'univers carcéral désigne :</t>
+  </si>
+  <si>
+    <t>La légitimité des lois provient :</t>
+  </si>
+  <si>
+    <t>Quelles infractions juge le tribunal correctionnel ?</t>
+  </si>
+  <si>
+    <t>Comment est composé le tribunal correctionnel en formation collégiale ?</t>
+  </si>
+  <si>
+    <t>Qui compose le tribunal correctionnel à juge unique ?</t>
+  </si>
+  <si>
+    <t>La Cour d'appel de Fada N'Gourma a été inaugurée le :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Cour d'appel de Fada est la quelle ième au Burkina Faso : </t>
+  </si>
+  <si>
+    <t>La Cour des comptes est une juridiction de l'ordre :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quel âge peut-on se présenter aux élections présidentielles au Burkina Faso ? </t>
+  </si>
+  <si>
+    <t>Selon le nouveau Code des Personnes et de la Famille, l'âge de mariage de la jeune fille est :</t>
+  </si>
+  <si>
+    <t>Selon le nouveau Code des Personnes et de la Famille, l'âge de mariage pour le garçon :</t>
+  </si>
+  <si>
+    <t>Au Burkina Faso, laquelle des juridictions suivantes est la juridiction suprême de l'ordre administratif :</t>
+  </si>
+  <si>
+    <t>Dans une affaire qui oppose un fonctionnaire à l'État burkinabè pour la dé¬fense d'un intérêt professionnel, laquelle des juridictions suivantes doit être saisie ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La garde de la sécurité pénitentiaire relève de quel ministère ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorsque le TGI statue sur une contravention elle est dénommée : </t>
+  </si>
+  <si>
+    <t>« Exequatur » signifie :</t>
+  </si>
+  <si>
+    <t>L'huissier de justice est principalement chargé de :</t>
+  </si>
+  <si>
+    <t>Un procès équitable est un procès :</t>
+  </si>
+  <si>
+    <t>L'admission à l'UA d'un État africain est décidée :</t>
+  </si>
+  <si>
+    <t>La prison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de leur vote par l'assemblée nationale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">délits </t>
+  </si>
+  <si>
+    <t>le président et deux juges assesseurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le président et le greffier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">troisième </t>
+  </si>
+  <si>
+    <t xml:space="preserve">administratif </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 ans </t>
+  </si>
+  <si>
+    <t>17 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 ans </t>
+  </si>
+  <si>
+    <t>Le conseil d'État</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le tribunal administratif </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministère de la justice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tribunal de police </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exécution d'une décision rendue à l'étranger </t>
+  </si>
+  <si>
+    <t>Procéder à l'exécution forcée des jugements et autres actes exécutoires</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Impartial </t>
+  </si>
+  <si>
+    <t>A la majorité simple des États membres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A la majorité simple des États membres//A la majorité absolue//A la majorité des 2/3 des voix des États présents//A la majorité qualifiée
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inique//Impartial//Partial//Injuste
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procéder à l'exécution forcée des jugements et autres actes exécutoires//Assister, conseiller et rédiger les actes pour les différentes parties//Assister le juge dans l'accomplissement matériel ou intellectuel de son travail//défendre la cause du plus faible
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exécution d'une décision rendue à l'étranger//Reprendre un jugement//surseoir à une décision rendue à l'étranger
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tribunal de gendarmerie//tribunal d'entente//tribunal de police//tribunal de sanction
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ministère de la sécurité// Ministère de la défense//Ministère de la justice//Ministère des droits humains
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le tribunal du travail//Le tribunal administratif//Le tribunal de grande instance//La cour d'appel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cour de cassation//La cour constitutionnelle//Le tribunal de grande instance//Le conseil d'État
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 ans//20 ans//18 ans//17 ans
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 ans//35 ans//37 ans//30 ans
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">judiciaire//administratif//étatique//correctionnel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quatrième//troisième//cinquième//deuxième
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 mars 2017//16 Avril 2017//10 mars 2017 //10 mars 2016
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le président seul//le président et le procureur de la République//le président et le greffier//le président et le huissier
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le président, le procureur de la République et le greffier//le président et deux juges assesseurs//le président, le procureur de la//République et l'huissier//Aucune bonne réponse
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contraventions//délits//crimes//banditisme
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de leur caractère obligatoire//du fait qu'elles sont écrites //de leur vote par l'assemblée nationale //de leur caractère contraignant
+</t>
+  </si>
+  <si>
+    <t>la prison//la condamnation//la Justice//la liberté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 //2 //3  //4
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +249,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,51 +573,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759BF4C5-E004-4DA4-AECD-D7D888DCF235}">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="95.140625" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>42804</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>